--- a/biology/Botanique/Trochodendraceae/Trochodendraceae.xlsx
+++ b/biology/Botanique/Trochodendraceae/Trochodendraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Trochodendraceae est une famille de plantes qui ne comprend qu’une ou deux espèces. Ce sont des arbres (-20m) à feuilles persistantes des régions tempérées à subtropicales, originaires du Japon et de Taïwan.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Trochodendron dérivé du grec τροχός / trochos, roue, et δένδρων / dendron, arbre, en référence à la disposition circulaire des étamines[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Trochodendron dérivé du grec τροχός / trochos, roue, et δένδρων / dendron, arbre, en référence à la disposition circulaire des étamines.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG (1998)[2] et la classification phylogénétique APG II (2003)[3] situent cette famille à la base des "eudicots" regroupée ou optionnellement réunie avec la famille Tetracentraceae qui ne comporte qu'une espèce originaire de Chine: Tetracentron sinense.
-Le Angiosperm Phylogeny Website place cette famille dans l'ordre Trochodendrales, choix qui a été confirmée par la classification phylogénétique APG III (2009)[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG (1998) et la classification phylogénétique APG II (2003) situent cette famille à la base des "eudicots" regroupée ou optionnellement réunie avec la famille Tetracentraceae qui ne comporte qu'une espèce originaire de Chine: Tetracentron sinense.
+Le Angiosperm Phylogeny Website place cette famille dans l'ordre Trochodendrales, choix qui a été confirmée par la classification phylogénétique APG III (2009).
 </t>
         </is>
       </c>
@@ -574,13 +590,15 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La classification phylogénétique APG III (2009)[4] inclut dans cette famille le genre Tetracentron, précédemment placés dans la famille Tetracentraceae.
-Selon Angiosperm Phylogeny Website                        (21 mai 2010)[5] et NCBI  (27 avr. 2010)[6] (Plus conforme à APGIII puisqu'il incorpore le genre Tetracentron anciennement dans Tetracentraceae) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La classification phylogénétique APG III (2009) inclut dans cette famille le genre Tetracentron, précédemment placés dans la famille Tetracentraceae.
+Selon Angiosperm Phylogeny Website                        (21 mai 2010) et NCBI  (27 avr. 2010) (Plus conforme à APGIII puisqu'il incorpore le genre Tetracentron anciennement dans Tetracentraceae) :
 Tetracentron (anciennement dans Tetracentraceae)
 Trochodendron
-Selon DELTA Angio           (27 avr. 2010)[7] :
+Selon DELTA Angio           (27 avr. 2010) :
 Trochodendron</t>
         </is>
       </c>
@@ -609,9 +627,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (27 avr. 2010)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (27 avr. 2010) :
 genre Tetracentron
 Tetracentron sinense
 genre Trochodendron
